--- a/Tools/ExcelConfig/ExcelTables/commonConfig.xlsx
+++ b/Tools/ExcelConfig/ExcelTables/commonConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/OneTb/GameP/Tools/ExcelConfig/ExcelTables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workSpace\GameP\Tools\ExcelConfig\ExcelTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE097B38-4389-5642-A323-B312CE2CF49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FB3B9E-49C5-4AA0-B20C-73D2CD863E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="7640" windowWidth="21580" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="4410" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>##</t>
   </si>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>最大动作判定时间20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>均值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -113,13 +109,34 @@
   <si>
     <t>drawStun</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTough</t>
+  </si>
+  <si>
+    <t>minTough</t>
+  </si>
+  <si>
+    <t>midTough</t>
+  </si>
+  <si>
+    <t>低于minTough对于非Stun目标直接判负</t>
+  </si>
+  <si>
+    <t>高于或等于maxTough对于目标判胜</t>
+  </si>
+  <si>
+    <t>中间值，大于等于此值，非攻击状态可以接住此攻击</t>
+  </si>
+  <si>
+    <t>最大动作判定时间20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,29 +473,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="3" width="29.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.375" customWidth="1"/>
+    <col min="17" max="17" width="8.375" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -489,7 +507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -504,7 +522,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -515,7 +533,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -530,7 +548,7 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -538,13 +556,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -552,14 +570,14 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <f>(D4+D5)/2</f>
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -567,28 +585,70 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>2200</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <f>D4/D2*D3</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <f>D5/D2*D3</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <f>D6/D2*D3</f>
+        <v>18000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -602,22 +662,22 @@
   <dimension ref="E8:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="8" spans="5:10">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:10">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="5:10">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F10">
         <v>3</v>
       </c>
@@ -634,7 +694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="5:10">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
@@ -645,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="5:10">
+    <row r="12" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F12">
         <v>5</v>
       </c>
@@ -653,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="5:10">
+    <row r="13" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>6</v>
       </c>
@@ -664,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="5:10">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F14">
         <v>7</v>
       </c>
@@ -672,7 +732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="5:10">
+    <row r="15" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>8</v>
       </c>
@@ -680,7 +740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="5:10">
+    <row r="16" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F16">
         <v>9</v>
       </c>
@@ -688,7 +748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="5:7">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
@@ -699,7 +759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="5:7">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F18">
         <v>11</v>
       </c>
@@ -707,7 +767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="5:7">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>12</v>
       </c>
@@ -715,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="5:7">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F20">
         <v>13</v>
       </c>
@@ -723,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="5:7">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F21">
         <v>14</v>
       </c>
@@ -731,7 +791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="5:7">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F22">
         <v>15</v>
       </c>
